--- a/Code/Results/Cases/Case_4_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8217765864524722</v>
+        <v>0.2569729462136934</v>
       </c>
       <c r="C2">
-        <v>0.1456538192499579</v>
+        <v>0.05177388402117344</v>
       </c>
       <c r="D2">
-        <v>0.1987470168156023</v>
+        <v>0.07886614501170186</v>
       </c>
       <c r="E2">
-        <v>0.336236935532483</v>
+        <v>0.1679569557938976</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3312999786213808</v>
+        <v>0.486907209969111</v>
       </c>
       <c r="H2">
-        <v>0.2830704075629029</v>
+        <v>0.6345743011770892</v>
       </c>
       <c r="I2">
-        <v>0.2491669813841284</v>
+        <v>0.5079287286296754</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9126382611458723</v>
+        <v>0.2764099386066334</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5979603986006339</v>
+        <v>0.2175147502625947</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.243817419976509</v>
+        <v>2.204415478390189</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7189022175618618</v>
+        <v>0.2247108474927586</v>
       </c>
       <c r="C3">
-        <v>0.1302400325198789</v>
+        <v>0.04674439375598638</v>
       </c>
       <c r="D3">
-        <v>0.1725047773450541</v>
+        <v>0.07149884586686994</v>
       </c>
       <c r="E3">
-        <v>0.2930556576050662</v>
+        <v>0.1572382192002379</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3180958370948517</v>
+        <v>0.4878594031484127</v>
       </c>
       <c r="H3">
-        <v>0.2829623611576153</v>
+        <v>0.6387970036271469</v>
       </c>
       <c r="I3">
-        <v>0.2522612142414324</v>
+        <v>0.5127568242317651</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.801375836202368</v>
+        <v>0.2411291852741329</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.517716426809713</v>
+        <v>0.1947965997721681</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.215222864305701</v>
+        <v>2.215010613189818</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6557136131904713</v>
+        <v>0.2048533372612553</v>
       </c>
       <c r="C4">
-        <v>0.1207671984277567</v>
+        <v>0.04363508242363423</v>
       </c>
       <c r="D4">
-        <v>0.1565236905507419</v>
+        <v>0.0670079498903533</v>
       </c>
       <c r="E4">
-        <v>0.267062956789708</v>
+        <v>0.1507792560860608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3108446592323375</v>
+        <v>0.4888031866333122</v>
       </c>
       <c r="H4">
-        <v>0.2834265930714537</v>
+        <v>0.6416829544633629</v>
       </c>
       <c r="I4">
-        <v>0.2547776969068281</v>
+        <v>0.5160172512960166</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7330185886989966</v>
+        <v>0.2193877397840822</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4688076430270058</v>
+        <v>0.1809048839706691</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.200582179199273</v>
+        <v>2.222881997568834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6299503724231954</v>
+        <v>0.1967495430767769</v>
       </c>
       <c r="C5">
-        <v>0.1169034042542876</v>
+        <v>0.04236273944333391</v>
       </c>
       <c r="D5">
-        <v>0.1500404361915457</v>
+        <v>0.06518611505656224</v>
       </c>
       <c r="E5">
-        <v>0.2565880179279389</v>
+        <v>0.1481777308007111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3080933273644533</v>
+        <v>0.4892779692753919</v>
       </c>
       <c r="H5">
-        <v>0.2837440425725433</v>
+        <v>0.6429327533882514</v>
       </c>
       <c r="I5">
-        <v>0.2559518605279436</v>
+        <v>0.5174202739765157</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.705143579574937</v>
+        <v>0.2105085712020696</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4489538462659723</v>
+        <v>0.1752583178814504</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.195313715432448</v>
+        <v>2.226432906976896</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6256713877955917</v>
+        <v>0.1954032220679665</v>
       </c>
       <c r="C6">
-        <v>0.1162615727820793</v>
+        <v>0.04215115094717703</v>
       </c>
       <c r="D6">
-        <v>0.1489655461864885</v>
+        <v>0.06488409944158491</v>
       </c>
       <c r="E6">
-        <v>0.2548553623112966</v>
+        <v>0.1477475885074924</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3076484347833457</v>
+        <v>0.4893622497879448</v>
       </c>
       <c r="H6">
-        <v>0.2838043564440369</v>
+        <v>0.6431447366214158</v>
       </c>
       <c r="I6">
-        <v>0.2561556285242084</v>
+        <v>0.5176577352977887</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7005135800191198</v>
+        <v>0.2090330376810527</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.445661392476751</v>
+        <v>0.1743215811240191</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.194480023453821</v>
+        <v>2.227043258256344</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6553662248434193</v>
+        <v>0.2047440933758367</v>
       </c>
       <c r="C7">
-        <v>0.1207151059906693</v>
+        <v>0.04361794444285749</v>
       </c>
       <c r="D7">
-        <v>0.1564361421144866</v>
+        <v>0.06698334657801297</v>
       </c>
       <c r="E7">
-        <v>0.2669212306503965</v>
+        <v>0.1507440475822861</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3108067445855909</v>
+        <v>0.4888092247347089</v>
       </c>
       <c r="H7">
-        <v>0.2834303615546503</v>
+        <v>0.6416995110444077</v>
       </c>
       <c r="I7">
-        <v>0.2547929383053003</v>
+        <v>0.5160358718855953</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7326427437287464</v>
+        <v>0.2192680699170637</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4685395941385408</v>
+        <v>0.1808286740051699</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.200508347579557</v>
+        <v>2.222928496835252</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7863056541188769</v>
+        <v>0.245859311855213</v>
       </c>
       <c r="C8">
-        <v>0.1403401098312713</v>
+        <v>0.05004414309478022</v>
       </c>
       <c r="D8">
-        <v>0.1896688959626971</v>
+        <v>0.07631913854253014</v>
       </c>
       <c r="E8">
-        <v>0.3212314665239049</v>
+        <v>0.1642355987141642</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3265622439680698</v>
+        <v>0.4871609125308325</v>
       </c>
       <c r="H8">
-        <v>0.2829198550121248</v>
+        <v>0.6359694507786742</v>
       </c>
       <c r="I8">
-        <v>0.2501019628912502</v>
+        <v>0.5095320009497897</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.874278376646032</v>
+        <v>0.2642617989471887</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5702086259760222</v>
+        <v>0.2096696322514831</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.233330690071924</v>
+        <v>2.207785048234385</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.043266476415909</v>
+        <v>0.3260842191237998</v>
       </c>
       <c r="C9">
-        <v>0.1788226548538887</v>
+        <v>0.06247603981634597</v>
       </c>
       <c r="D9">
-        <v>0.2560747984824445</v>
+        <v>0.09488533776642782</v>
       </c>
       <c r="E9">
-        <v>0.4325274193863322</v>
+        <v>0.1916749387630574</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3648121691767443</v>
+        <v>0.4867843483849867</v>
       </c>
       <c r="H9">
-        <v>0.2863741787348459</v>
+        <v>0.6270583157499203</v>
       </c>
       <c r="I9">
-        <v>0.2460985691036726</v>
+        <v>0.4991284894375063</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.152113093053316</v>
+        <v>0.3518507282082339</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7731266844980738</v>
+        <v>0.2666841452789868</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.322537864682261</v>
+        <v>2.188938458138495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.232744705626544</v>
+        <v>0.3847626671695821</v>
       </c>
       <c r="C10">
-        <v>0.2071974385309119</v>
+        <v>0.07150467058573895</v>
       </c>
       <c r="D10">
-        <v>0.3059019120158553</v>
+        <v>0.1086845880916627</v>
       </c>
       <c r="E10">
-        <v>0.5182123881386644</v>
+        <v>0.2124514107873665</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3982247246912038</v>
+        <v>0.4882581497207923</v>
       </c>
       <c r="H10">
-        <v>0.2919910956551064</v>
+        <v>0.6219281191255988</v>
       </c>
       <c r="I10">
-        <v>0.246770697431117</v>
+        <v>0.4929212651769959</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.356933343847288</v>
+        <v>0.415792659496077</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9253939987238482</v>
+        <v>0.3088596107593702</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.405738426449801</v>
+        <v>2.181724855251844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.319231558035284</v>
+        <v>0.4113965493761782</v>
       </c>
       <c r="C11">
-        <v>0.2201529909592068</v>
+        <v>0.07558894091144452</v>
       </c>
       <c r="D11">
-        <v>0.3288626834019652</v>
+        <v>0.1149969510842368</v>
       </c>
       <c r="E11">
-        <v>0.5582838387573332</v>
+        <v>0.2220410569560585</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4147753018857685</v>
+        <v>0.489310810905593</v>
       </c>
       <c r="H11">
-        <v>0.2953015467832785</v>
+        <v>0.6199017553545474</v>
       </c>
       <c r="I11">
-        <v>0.247967169352421</v>
+        <v>0.4904100213860048</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.450417562208713</v>
+        <v>0.4447892809808138</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9956025882891879</v>
+        <v>0.328110595070882</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.448022990102004</v>
+        <v>2.179887697615385</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.352036022074344</v>
+        <v>0.4214731766791999</v>
       </c>
       <c r="C12">
-        <v>0.2250680062168584</v>
+        <v>0.07713221301494855</v>
       </c>
       <c r="D12">
-        <v>0.3376055708792336</v>
+        <v>0.1173923016344958</v>
       </c>
       <c r="E12">
-        <v>0.5736368512515355</v>
+        <v>0.2256925695778307</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4212545579553506</v>
+        <v>0.4897645407222626</v>
       </c>
       <c r="H12">
-        <v>0.2966715322582161</v>
+        <v>0.6191786123671648</v>
       </c>
       <c r="I12">
-        <v>0.2485578698849338</v>
+        <v>0.4895040690034484</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.485875854008356</v>
+        <v>0.4557560659010846</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.022346277318597</v>
+        <v>0.3354098721920522</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.464726855681903</v>
+        <v>2.17940000763096</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.344968405545586</v>
+        <v>0.4193034053889448</v>
       </c>
       <c r="C13">
-        <v>0.2240090317244636</v>
+        <v>0.07679999179964625</v>
       </c>
       <c r="D13">
-        <v>0.3357203952099326</v>
+        <v>0.1168761984863522</v>
       </c>
       <c r="E13">
-        <v>0.5703219873919636</v>
+        <v>0.2249052524076163</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4198494147730401</v>
+        <v>0.4896643685330559</v>
       </c>
       <c r="H13">
-        <v>0.2963711748906093</v>
+        <v>0.6193323885540707</v>
       </c>
       <c r="I13">
-        <v>0.2484243719370944</v>
+        <v>0.4896971794973837</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.478236482217568</v>
+        <v>0.4533947862261698</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.016579185941168</v>
+        <v>0.3338374268958333</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.461097722160048</v>
+        <v>2.179495784599482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.321929252873645</v>
+        <v>0.412225743875922</v>
       </c>
       <c r="C14">
-        <v>0.2205571582122872</v>
+        <v>0.07571597436424327</v>
       </c>
       <c r="D14">
-        <v>0.3295809663002132</v>
+        <v>0.1151939181230546</v>
       </c>
       <c r="E14">
-        <v>0.5595432258012139</v>
+        <v>0.2223410645058905</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4153040015506093</v>
+        <v>0.4893470342088762</v>
       </c>
       <c r="H14">
-        <v>0.2954118770877159</v>
+        <v>0.6198413762005686</v>
       </c>
       <c r="I14">
-        <v>0.248012951405542</v>
+        <v>0.4903345858442378</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.453333498517537</v>
+        <v>0.4456918007381319</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9977995252568235</v>
+        <v>0.3287109237874475</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.449383044494112</v>
+        <v>2.179843404653013</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.307824473186884</v>
+        <v>0.4078892781761567</v>
       </c>
       <c r="C15">
-        <v>0.2184440292331971</v>
+        <v>0.07505154403561676</v>
       </c>
       <c r="D15">
-        <v>0.3258268384616088</v>
+        <v>0.1141641222277769</v>
       </c>
       <c r="E15">
-        <v>0.5529648854343847</v>
+        <v>0.2207730526686049</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4125479471812525</v>
+        <v>0.4891598390472183</v>
       </c>
       <c r="H15">
-        <v>0.2948396774916375</v>
+        <v>0.6201589014362838</v>
       </c>
       <c r="I15">
-        <v>0.2477791617083618</v>
+        <v>0.4907308782075503</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.438087645005993</v>
+        <v>0.4409717118503522</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9863175942643139</v>
+        <v>0.3255720092333618</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.442299196067751</v>
+        <v>2.180083429005464</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.227099450721994</v>
+        <v>0.3830208431705557</v>
       </c>
       <c r="C16">
-        <v>0.2063519040772945</v>
+        <v>0.07123728802540086</v>
       </c>
       <c r="D16">
-        <v>0.3044077812919994</v>
+        <v>0.108272761560599</v>
       </c>
       <c r="E16">
-        <v>0.5156174277134795</v>
+        <v>0.2118275080397467</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3971717704085762</v>
+        <v>0.4881970596891989</v>
       </c>
       <c r="H16">
-        <v>0.2917906004331456</v>
+        <v>0.6220667317654147</v>
       </c>
       <c r="I16">
-        <v>0.246711228753977</v>
+        <v>0.4930916742780056</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.350831282765654</v>
+        <v>0.4138957872912954</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9208264733926512</v>
+        <v>0.307602822855344</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.403068800731631</v>
+        <v>2.181874008005565</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.177660191727995</v>
+        <v>0.3677493155168747</v>
       </c>
       <c r="C17">
-        <v>0.1989474847037513</v>
+        <v>0.06889145801925167</v>
       </c>
       <c r="D17">
-        <v>0.2913472591238815</v>
+        <v>0.1046675429461175</v>
       </c>
       <c r="E17">
-        <v>0.4930007469918394</v>
+        <v>0.2063752987333416</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3880971681914076</v>
+        <v>0.4877044266618498</v>
       </c>
       <c r="H17">
-        <v>0.2901188974094566</v>
+        <v>0.6233158497533964</v>
       </c>
       <c r="I17">
-        <v>0.2462907974582969</v>
+        <v>0.4946200234376938</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.297390919177104</v>
+        <v>0.3972619240363997</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8809059070703782</v>
+        <v>0.2965959809590473</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.380175442224072</v>
+        <v>2.183342620630185</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.149250790453834</v>
+        <v>0.3589599923558637</v>
       </c>
       <c r="C18">
-        <v>0.1946930101217674</v>
+        <v>0.06754004681535264</v>
       </c>
       <c r="D18">
-        <v>0.2838625081520973</v>
+        <v>0.1025972147187844</v>
       </c>
       <c r="E18">
-        <v>0.4800937017632947</v>
+        <v>0.2032523381525024</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.383003734507767</v>
+        <v>0.4874570449544819</v>
       </c>
       <c r="H18">
-        <v>0.2892279711246744</v>
+        <v>0.624063242522638</v>
       </c>
       <c r="I18">
-        <v>0.2461322053532982</v>
+        <v>0.4955284948525005</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.266681806995109</v>
+        <v>0.3876860434157265</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8580318557039206</v>
+        <v>0.2902712705045971</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.367421907942258</v>
+        <v>2.184323258271149</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.139636106939292</v>
+        <v>0.35598314241048</v>
       </c>
       <c r="C19">
-        <v>0.1932532024257654</v>
+        <v>0.06708211444295387</v>
       </c>
       <c r="D19">
-        <v>0.2813328200528247</v>
+        <v>0.1018968048038147</v>
       </c>
       <c r="E19">
-        <v>0.4757403949962011</v>
+        <v>0.2021971841177432</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3813003156653991</v>
+        <v>0.4873794587702918</v>
       </c>
       <c r="H19">
-        <v>0.2889382152840057</v>
+        <v>0.624321266326362</v>
       </c>
       <c r="I19">
-        <v>0.2460925236734752</v>
+        <v>0.4958411359142296</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.25628871648513</v>
+        <v>0.3844423674470931</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8503014349323408</v>
+        <v>0.2881308863786103</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.363173332374799</v>
+        <v>2.18467862216184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182920234224497</v>
+        <v>0.3693755733549153</v>
       </c>
       <c r="C20">
-        <v>0.1997352322912036</v>
+        <v>0.06914139876708703</v>
       </c>
       <c r="D20">
-        <v>0.2927347058577681</v>
+        <v>0.1050509835586979</v>
       </c>
       <c r="E20">
-        <v>0.4953976782057552</v>
+        <v>0.2069543479777423</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.389050006991198</v>
+        <v>0.4877531446904158</v>
       </c>
       <c r="H20">
-        <v>0.290289492373077</v>
+        <v>0.6231798845760039</v>
       </c>
       <c r="I20">
-        <v>0.2463268722649943</v>
+        <v>0.4944542841982518</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.303076708401647</v>
+        <v>0.3990335131150857</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8851463417426331</v>
+        <v>0.2977670433940602</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.382569242830556</v>
+        <v>2.183172213782768</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.328694853044482</v>
+        <v>0.4143048743235909</v>
       </c>
       <c r="C21">
-        <v>0.2215707939247693</v>
+        <v>0.07603446802042413</v>
       </c>
       <c r="D21">
-        <v>0.3313829102990127</v>
+        <v>0.1156879093809664</v>
       </c>
       <c r="E21">
-        <v>0.5627041743494914</v>
+        <v>0.2230936807126085</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4166332014255545</v>
+        <v>0.4894387461603031</v>
       </c>
       <c r="H21">
-        <v>0.2956904224768095</v>
+        <v>0.6196906747367876</v>
       </c>
       <c r="I21">
-        <v>0.2481299811344471</v>
+        <v>0.4901461422689302</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.4606464281093</v>
+        <v>0.4479547278428413</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.003311116934455</v>
+        <v>0.3302164485146832</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.45280471143974</v>
+        <v>2.179735652675419</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.424286525744805</v>
+        <v>0.4436158002302477</v>
       </c>
       <c r="C22">
-        <v>0.2358953617891046</v>
+        <v>0.08051991930463487</v>
       </c>
       <c r="D22">
-        <v>0.3569253572852489</v>
+        <v>0.122668855138599</v>
       </c>
       <c r="E22">
-        <v>0.6077465930041939</v>
+        <v>0.2337590595468839</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4359047291697351</v>
+        <v>0.4908616741497411</v>
       </c>
       <c r="H22">
-        <v>0.2999026814105861</v>
+        <v>0.6176678860780669</v>
       </c>
       <c r="I22">
-        <v>0.2501155160592177</v>
+        <v>0.4875928562143059</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.563971419036335</v>
+        <v>0.4798480137448564</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.081466481956973</v>
+        <v>0.3514784827137234</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.502766749398688</v>
+        <v>2.178702195664101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.373234091486864</v>
+        <v>0.4279770279260049</v>
       </c>
       <c r="C23">
-        <v>0.2282443864065016</v>
+        <v>0.07812775960762508</v>
       </c>
       <c r="D23">
-        <v>0.3432648860824088</v>
+        <v>0.118940343584427</v>
       </c>
       <c r="E23">
-        <v>0.5836025432530363</v>
+        <v>0.2280559285502548</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4254991284122269</v>
+        <v>0.4900727843678681</v>
       </c>
       <c r="H23">
-        <v>0.2975893536867034</v>
+        <v>0.6187239166048641</v>
       </c>
       <c r="I23">
-        <v>0.2489786160709713</v>
+        <v>0.4889315661786462</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.508788805234587</v>
+        <v>0.4628334232025395</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.03966090115037</v>
+        <v>0.3401255579831357</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.475710875160814</v>
+        <v>2.179142723339083</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.180542126632645</v>
+        <v>0.3686403717959195</v>
       </c>
       <c r="C24">
-        <v>0.19937908421592</v>
+        <v>0.06902840915462605</v>
       </c>
       <c r="D24">
-        <v>0.2921073671294323</v>
+        <v>0.1048776227047767</v>
       </c>
       <c r="E24">
-        <v>0.4943137294910613</v>
+        <v>0.2066925237414168</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3886188446647907</v>
+        <v>0.4877310076420542</v>
       </c>
       <c r="H24">
-        <v>0.2902121484449509</v>
+        <v>0.6232412632931101</v>
       </c>
       <c r="I24">
-        <v>0.2463103046595876</v>
+        <v>0.4945291220779104</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.300506119024533</v>
+        <v>0.3982326176828224</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8832290035987569</v>
+        <v>0.2972375958844822</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.381485738255179</v>
+        <v>2.183248830131902</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9736747406930988</v>
+        <v>0.3044261292567398</v>
       </c>
       <c r="C25">
-        <v>0.1684021762498702</v>
+        <v>0.05913122668015092</v>
       </c>
       <c r="D25">
-        <v>0.2379494949283441</v>
+        <v>0.08983489048006277</v>
       </c>
       <c r="E25">
-        <v>0.4018076742455321</v>
+        <v>0.1841448455633312</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3535951456680237</v>
+        <v>0.4865795031560083</v>
       </c>
       <c r="H25">
-        <v>0.2849266930499681</v>
+        <v>0.629220144438591</v>
       </c>
       <c r="I25">
-        <v>0.2465810487086131</v>
+        <v>0.501690932809165</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.07687859957656</v>
+        <v>0.3282263025243424</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7177513848267552</v>
+        <v>0.2512104038531788</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.295495649777337</v>
+        <v>2.192873487003851</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2569729462136934</v>
+        <v>0.8217765864525006</v>
       </c>
       <c r="C2">
-        <v>0.05177388402117344</v>
+        <v>0.1456538192498869</v>
       </c>
       <c r="D2">
-        <v>0.07886614501170186</v>
+        <v>0.1987470168156023</v>
       </c>
       <c r="E2">
-        <v>0.1679569557938976</v>
+        <v>0.336236935532483</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.486907209969111</v>
+        <v>0.331299978621395</v>
       </c>
       <c r="H2">
-        <v>0.6345743011770892</v>
+        <v>0.2830704075628958</v>
       </c>
       <c r="I2">
-        <v>0.5079287286296754</v>
+        <v>0.2491669813841249</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2764099386066334</v>
+        <v>0.9126382611458723</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2175147502625947</v>
+        <v>0.5979603986006126</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.204415478390189</v>
+        <v>1.243817419976523</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2247108474927586</v>
+        <v>0.7189022175617197</v>
       </c>
       <c r="C3">
-        <v>0.04674439375598638</v>
+        <v>0.1302400325200068</v>
       </c>
       <c r="D3">
-        <v>0.07149884586686994</v>
+        <v>0.1725047773450541</v>
       </c>
       <c r="E3">
-        <v>0.1572382192002379</v>
+        <v>0.293055657605052</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4878594031484127</v>
+        <v>0.3180958370948446</v>
       </c>
       <c r="H3">
-        <v>0.6387970036271469</v>
+        <v>0.2829623611576153</v>
       </c>
       <c r="I3">
-        <v>0.5127568242317651</v>
+        <v>0.2522612142414431</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2411291852741329</v>
+        <v>0.8013758362022685</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1947965997721681</v>
+        <v>0.517716426809713</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.215010613189818</v>
+        <v>1.215222864305574</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2048533372612553</v>
+        <v>0.6557136131904429</v>
       </c>
       <c r="C4">
-        <v>0.04363508242363423</v>
+        <v>0.1207671984279841</v>
       </c>
       <c r="D4">
-        <v>0.0670079498903533</v>
+        <v>0.1565236905506993</v>
       </c>
       <c r="E4">
-        <v>0.1507792560860608</v>
+        <v>0.267062956789708</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4888031866333122</v>
+        <v>0.3108446592323872</v>
       </c>
       <c r="H4">
-        <v>0.6416829544633629</v>
+        <v>0.2834265930714537</v>
       </c>
       <c r="I4">
-        <v>0.5160172512960166</v>
+        <v>0.2547776969068138</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2193877397840822</v>
+        <v>0.7330185886989966</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1809048839706691</v>
+        <v>0.4688076430270058</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.222881997568834</v>
+        <v>1.200582179199273</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1967495430767769</v>
+        <v>0.6299503724230533</v>
       </c>
       <c r="C5">
-        <v>0.04236273944333391</v>
+        <v>0.1169034042542876</v>
       </c>
       <c r="D5">
-        <v>0.06518611505656224</v>
+        <v>0.1500404361915884</v>
       </c>
       <c r="E5">
-        <v>0.1481777308007111</v>
+        <v>0.2565880179279674</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4892779692753919</v>
+        <v>0.3080933273644604</v>
       </c>
       <c r="H5">
-        <v>0.6429327533882514</v>
+        <v>0.2837440425725433</v>
       </c>
       <c r="I5">
-        <v>0.5174202739765157</v>
+        <v>0.2559518605279401</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2105085712020696</v>
+        <v>0.705143579574866</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1752583178814504</v>
+        <v>0.4489538462659723</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.226432906976896</v>
+        <v>1.195313715432391</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1954032220679665</v>
+        <v>0.6256713877956201</v>
       </c>
       <c r="C6">
-        <v>0.04215115094717703</v>
+        <v>0.116261572781923</v>
       </c>
       <c r="D6">
-        <v>0.06488409944158491</v>
+        <v>0.1489655461866448</v>
       </c>
       <c r="E6">
-        <v>0.1477475885074924</v>
+        <v>0.2548553623112682</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4893622497879448</v>
+        <v>0.3076484347834523</v>
       </c>
       <c r="H6">
-        <v>0.6431447366214158</v>
+        <v>0.2838043564441506</v>
       </c>
       <c r="I6">
-        <v>0.5176577352977887</v>
+        <v>0.2561556285242048</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2090330376810527</v>
+        <v>0.7005135800190772</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1743215811240191</v>
+        <v>0.4456613924767652</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.227043258256344</v>
+        <v>1.19448002345375</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2047440933758367</v>
+        <v>0.6553662248434193</v>
       </c>
       <c r="C7">
-        <v>0.04361794444285749</v>
+        <v>0.1207151059906977</v>
       </c>
       <c r="D7">
-        <v>0.06698334657801297</v>
+        <v>0.1564361421144866</v>
       </c>
       <c r="E7">
-        <v>0.1507440475822861</v>
+        <v>0.2669212306503894</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4888092247347089</v>
+        <v>0.3108067445855909</v>
       </c>
       <c r="H7">
-        <v>0.6416995110444077</v>
+        <v>0.2834303615546503</v>
       </c>
       <c r="I7">
-        <v>0.5160358718855953</v>
+        <v>0.254792938305286</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2192680699170637</v>
+        <v>0.7326427437287037</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1808286740051699</v>
+        <v>0.468539594138548</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.222928496835252</v>
+        <v>1.2005083475796</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.245859311855213</v>
+        <v>0.7863056541187632</v>
       </c>
       <c r="C8">
-        <v>0.05004414309478022</v>
+        <v>0.1403401098310013</v>
       </c>
       <c r="D8">
-        <v>0.07631913854253014</v>
+        <v>0.1896688959627255</v>
       </c>
       <c r="E8">
-        <v>0.1642355987141642</v>
+        <v>0.321231466523912</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4871609125308325</v>
+        <v>0.3265622439681337</v>
       </c>
       <c r="H8">
-        <v>0.6359694507786742</v>
+        <v>0.2829198550120111</v>
       </c>
       <c r="I8">
-        <v>0.5095320009497897</v>
+        <v>0.2501019628912466</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2642617989471887</v>
+        <v>0.8742783766459183</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2096696322514831</v>
+        <v>0.5702086259760151</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.207785048234385</v>
+        <v>1.233330690071909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3260842191237998</v>
+        <v>1.043266476416022</v>
       </c>
       <c r="C9">
-        <v>0.06247603981634597</v>
+        <v>0.1788226548543577</v>
       </c>
       <c r="D9">
-        <v>0.09488533776642782</v>
+        <v>0.2560747984823735</v>
       </c>
       <c r="E9">
-        <v>0.1916749387630574</v>
+        <v>0.4325274193863393</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4867843483849867</v>
+        <v>0.364812169176659</v>
       </c>
       <c r="H9">
-        <v>0.6270583157499203</v>
+        <v>0.2863741787348459</v>
       </c>
       <c r="I9">
-        <v>0.4991284894375063</v>
+        <v>0.2460985691036583</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3518507282082339</v>
+        <v>1.152113093053373</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2666841452789868</v>
+        <v>0.7731266844980667</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.188938458138495</v>
+        <v>1.322537864682289</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3847626671695821</v>
+        <v>1.232744705626601</v>
       </c>
       <c r="C10">
-        <v>0.07150467058573895</v>
+        <v>0.2071974385312245</v>
       </c>
       <c r="D10">
-        <v>0.1086845880916627</v>
+        <v>0.3059019120157842</v>
       </c>
       <c r="E10">
-        <v>0.2124514107873665</v>
+        <v>0.5182123881387071</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4882581497207923</v>
+        <v>0.3982247246911328</v>
       </c>
       <c r="H10">
-        <v>0.6219281191255988</v>
+        <v>0.2919910956549927</v>
       </c>
       <c r="I10">
-        <v>0.4929212651769959</v>
+        <v>0.2467706974310993</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.415792659496077</v>
+        <v>1.356933343847288</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3088596107593702</v>
+        <v>0.9253939987238553</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.181724855251844</v>
+        <v>1.405738426449773</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4113965493761782</v>
+        <v>1.319231558035142</v>
       </c>
       <c r="C11">
-        <v>0.07558894091144452</v>
+        <v>0.2201529909598605</v>
       </c>
       <c r="D11">
-        <v>0.1149969510842368</v>
+        <v>0.3288626834020221</v>
       </c>
       <c r="E11">
-        <v>0.2220410569560585</v>
+        <v>0.5582838387573332</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.489310810905593</v>
+        <v>0.4147753018857685</v>
       </c>
       <c r="H11">
-        <v>0.6199017553545474</v>
+        <v>0.2953015467832785</v>
       </c>
       <c r="I11">
-        <v>0.4904100213860048</v>
+        <v>0.2479671693524175</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4447892809808138</v>
+        <v>1.45041756220877</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.328110595070882</v>
+        <v>0.9956025882892092</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.179887697615385</v>
+        <v>1.448022990102032</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4214731766791999</v>
+        <v>1.352036022074174</v>
       </c>
       <c r="C12">
-        <v>0.07713221301494855</v>
+        <v>0.2250680062163184</v>
       </c>
       <c r="D12">
-        <v>0.1173923016344958</v>
+        <v>0.3376055708791199</v>
       </c>
       <c r="E12">
-        <v>0.2256925695778307</v>
+        <v>0.5736368512515497</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4897645407222626</v>
+        <v>0.4212545579552653</v>
       </c>
       <c r="H12">
-        <v>0.6191786123671648</v>
+        <v>0.2966715322582019</v>
       </c>
       <c r="I12">
-        <v>0.4895040690034484</v>
+        <v>0.2485578698849515</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4557560659010846</v>
+        <v>1.485875854008185</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3354098721920522</v>
+        <v>1.022346277318604</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.17940000763096</v>
+        <v>1.464726855681874</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4193034053889448</v>
+        <v>1.3449684055457</v>
       </c>
       <c r="C13">
-        <v>0.07679999179964625</v>
+        <v>0.2240090317246342</v>
       </c>
       <c r="D13">
-        <v>0.1168761984863522</v>
+        <v>0.3357203952100036</v>
       </c>
       <c r="E13">
-        <v>0.2249052524076163</v>
+        <v>0.5703219873919423</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4896643685330559</v>
+        <v>0.4198494147729974</v>
       </c>
       <c r="H13">
-        <v>0.6193323885540707</v>
+        <v>0.2963711748906235</v>
       </c>
       <c r="I13">
-        <v>0.4896971794973837</v>
+        <v>0.2484243719370802</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4533947862261698</v>
+        <v>1.478236482217511</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3338374268958333</v>
+        <v>1.016579185941133</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.179495784599482</v>
+        <v>1.461097722159963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.412225743875922</v>
+        <v>1.321929252873645</v>
       </c>
       <c r="C14">
-        <v>0.07571597436424327</v>
+        <v>0.220557158212273</v>
       </c>
       <c r="D14">
-        <v>0.1151939181230546</v>
+        <v>0.3295809663</v>
       </c>
       <c r="E14">
-        <v>0.2223410645058905</v>
+        <v>0.5595432258011925</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4893470342088762</v>
+        <v>0.4153040015506662</v>
       </c>
       <c r="H14">
-        <v>0.6198413762005686</v>
+        <v>0.2954118770878296</v>
       </c>
       <c r="I14">
-        <v>0.4903345858442378</v>
+        <v>0.248012951405542</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4456918007381319</v>
+        <v>1.453333498517651</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3287109237874475</v>
+        <v>0.9977995252568235</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.179843404653013</v>
+        <v>1.449383044494112</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4078892781761567</v>
+        <v>1.307824473187026</v>
       </c>
       <c r="C15">
-        <v>0.07505154403561676</v>
+        <v>0.2184440292330692</v>
       </c>
       <c r="D15">
-        <v>0.1141641222277769</v>
+        <v>0.3258268384615093</v>
       </c>
       <c r="E15">
-        <v>0.2207730526686049</v>
+        <v>0.5529648854343918</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4891598390472183</v>
+        <v>0.4125479471812525</v>
       </c>
       <c r="H15">
-        <v>0.6201589014362838</v>
+        <v>0.2948396774917939</v>
       </c>
       <c r="I15">
-        <v>0.4907308782075503</v>
+        <v>0.247779161708376</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4409717118503522</v>
+        <v>1.438087645005965</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3255720092333618</v>
+        <v>0.9863175942642712</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.180083429005464</v>
+        <v>1.442299196067751</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3830208431705557</v>
+        <v>1.227099450722136</v>
       </c>
       <c r="C16">
-        <v>0.07123728802540086</v>
+        <v>0.2063519040773087</v>
       </c>
       <c r="D16">
-        <v>0.108272761560599</v>
+        <v>0.3044077812921699</v>
       </c>
       <c r="E16">
-        <v>0.2118275080397467</v>
+        <v>0.5156174277134369</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4881970596891989</v>
+        <v>0.3971717704086473</v>
       </c>
       <c r="H16">
-        <v>0.6220667317654147</v>
+        <v>0.291790600433032</v>
       </c>
       <c r="I16">
-        <v>0.4930916742780056</v>
+        <v>0.2467112287539699</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4138957872912954</v>
+        <v>1.350831282765625</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.307602822855344</v>
+        <v>0.9208264733926441</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.181874008005565</v>
+        <v>1.403068800731518</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3677493155168747</v>
+        <v>1.177660191727853</v>
       </c>
       <c r="C17">
-        <v>0.06889145801925167</v>
+        <v>0.1989474847033108</v>
       </c>
       <c r="D17">
-        <v>0.1046675429461175</v>
+        <v>0.2913472591237394</v>
       </c>
       <c r="E17">
-        <v>0.2063752987333416</v>
+        <v>0.4930007469918465</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4877044266618498</v>
+        <v>0.3880971681913934</v>
       </c>
       <c r="H17">
-        <v>0.6233158497533964</v>
+        <v>0.2901188974094708</v>
       </c>
       <c r="I17">
-        <v>0.4946200234376938</v>
+        <v>0.2462907974583111</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3972619240363997</v>
+        <v>1.297390919177218</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2965959809590473</v>
+        <v>0.8809059070703782</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.183342620630185</v>
+        <v>1.380175442224186</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3589599923558637</v>
+        <v>1.149250790453948</v>
       </c>
       <c r="C18">
-        <v>0.06754004681535264</v>
+        <v>0.1946930101222222</v>
       </c>
       <c r="D18">
-        <v>0.1025972147187844</v>
+        <v>0.2838625081522252</v>
       </c>
       <c r="E18">
-        <v>0.2032523381525024</v>
+        <v>0.4800937017632876</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4874570449544819</v>
+        <v>0.3830037345077102</v>
       </c>
       <c r="H18">
-        <v>0.624063242522638</v>
+        <v>0.2892279711246744</v>
       </c>
       <c r="I18">
-        <v>0.4955284948525005</v>
+        <v>0.2461322053532946</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3876860434157265</v>
+        <v>1.266681806995194</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2902712705045971</v>
+        <v>0.8580318557039135</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.184323258271149</v>
+        <v>1.367421907942287</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.35598314241048</v>
+        <v>1.139636106939236</v>
       </c>
       <c r="C19">
-        <v>0.06708211444295387</v>
+        <v>0.1932532024262343</v>
       </c>
       <c r="D19">
-        <v>0.1018968048038147</v>
+        <v>0.2813328200528389</v>
       </c>
       <c r="E19">
-        <v>0.2021971841177432</v>
+        <v>0.4757403949962367</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4873794587702918</v>
+        <v>0.381300315665456</v>
       </c>
       <c r="H19">
-        <v>0.624321266326362</v>
+        <v>0.2889382152840057</v>
       </c>
       <c r="I19">
-        <v>0.4958411359142296</v>
+        <v>0.2460925236734646</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3844423674470931</v>
+        <v>1.256288716485187</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2881308863786103</v>
+        <v>0.8503014349323337</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.18467862216184</v>
+        <v>1.363173332374885</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3693755733549153</v>
+        <v>1.182920234224383</v>
       </c>
       <c r="C20">
-        <v>0.06914139876708703</v>
+        <v>0.1997352322912747</v>
       </c>
       <c r="D20">
-        <v>0.1050509835586979</v>
+        <v>0.2927347058578675</v>
       </c>
       <c r="E20">
-        <v>0.2069543479777423</v>
+        <v>0.4953976782057268</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4877531446904158</v>
+        <v>0.3890500069912122</v>
       </c>
       <c r="H20">
-        <v>0.6231798845760039</v>
+        <v>0.290289492373077</v>
       </c>
       <c r="I20">
-        <v>0.4944542841982518</v>
+        <v>0.246326872265012</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3990335131150857</v>
+        <v>1.303076708401733</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2977670433940602</v>
+        <v>0.885146341742626</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.183172213782768</v>
+        <v>1.382569242830556</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4143048743235909</v>
+        <v>1.328694853044368</v>
       </c>
       <c r="C21">
-        <v>0.07603446802042413</v>
+        <v>0.2215707939248404</v>
       </c>
       <c r="D21">
-        <v>0.1156879093809664</v>
+        <v>0.3313829102990127</v>
       </c>
       <c r="E21">
-        <v>0.2230936807126085</v>
+        <v>0.5627041743495127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4894387461603031</v>
+        <v>0.4166332014254266</v>
       </c>
       <c r="H21">
-        <v>0.6196906747367876</v>
+        <v>0.2956904224768095</v>
       </c>
       <c r="I21">
-        <v>0.4901461422689302</v>
+        <v>0.2481299811344471</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4479547278428413</v>
+        <v>1.4606464281093</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3302164485146832</v>
+        <v>1.003311116934476</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.179735652675419</v>
+        <v>1.45280471143974</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4436158002302477</v>
+        <v>1.424286525745003</v>
       </c>
       <c r="C22">
-        <v>0.08051991930463487</v>
+        <v>0.2358953617894173</v>
       </c>
       <c r="D22">
-        <v>0.122668855138599</v>
+        <v>0.3569253572854763</v>
       </c>
       <c r="E22">
-        <v>0.2337590595468839</v>
+        <v>0.6077465930042223</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4908616741497411</v>
+        <v>0.4359047291697919</v>
       </c>
       <c r="H22">
-        <v>0.6176678860780669</v>
+        <v>0.2999026814104724</v>
       </c>
       <c r="I22">
-        <v>0.4875928562143059</v>
+        <v>0.2501155160592283</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4798480137448564</v>
+        <v>1.563971419036307</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3514784827137234</v>
+        <v>1.081466481956959</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.178702195664101</v>
+        <v>1.50276674939866</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4279770279260049</v>
+        <v>1.373234091486864</v>
       </c>
       <c r="C23">
-        <v>0.07812775960762508</v>
+        <v>0.2282443864065442</v>
       </c>
       <c r="D23">
-        <v>0.118940343584427</v>
+        <v>0.3432648860821672</v>
       </c>
       <c r="E23">
-        <v>0.2280559285502548</v>
+        <v>0.5836025432530434</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4900727843678681</v>
+        <v>0.4254991284121701</v>
       </c>
       <c r="H23">
-        <v>0.6187239166048641</v>
+        <v>0.297589353686817</v>
       </c>
       <c r="I23">
-        <v>0.4889315661786462</v>
+        <v>0.2489786160709535</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4628334232025395</v>
+        <v>1.508788805234474</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3401255579831357</v>
+        <v>1.03966090115037</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.179142723339083</v>
+        <v>1.475710875160786</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3686403717959195</v>
+        <v>1.180542126632787</v>
       </c>
       <c r="C24">
-        <v>0.06902840915462605</v>
+        <v>0.199379084215991</v>
       </c>
       <c r="D24">
-        <v>0.1048776227047767</v>
+        <v>0.2921073671294181</v>
       </c>
       <c r="E24">
-        <v>0.2066925237414168</v>
+        <v>0.4943137294910684</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4877310076420542</v>
+        <v>0.3886188446647481</v>
       </c>
       <c r="H24">
-        <v>0.6232412632931101</v>
+        <v>0.290212148444823</v>
       </c>
       <c r="I24">
-        <v>0.4945291220779104</v>
+        <v>0.2463103046595805</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3982326176828224</v>
+        <v>1.300506119024305</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2972375958844822</v>
+        <v>0.8832290035987569</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.183248830131902</v>
+        <v>1.381485738255094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3044261292567398</v>
+        <v>0.9736747406930704</v>
       </c>
       <c r="C25">
-        <v>0.05913122668015092</v>
+        <v>0.1684021762498702</v>
       </c>
       <c r="D25">
-        <v>0.08983489048006277</v>
+        <v>0.2379494949284435</v>
       </c>
       <c r="E25">
-        <v>0.1841448455633312</v>
+        <v>0.4018076742455463</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4865795031560083</v>
+        <v>0.3535951456681232</v>
       </c>
       <c r="H25">
-        <v>0.629220144438591</v>
+        <v>0.2849266930500818</v>
       </c>
       <c r="I25">
-        <v>0.501690932809165</v>
+        <v>0.2465810487086131</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3282263025243424</v>
+        <v>1.07687859957656</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2512104038531788</v>
+        <v>0.7177513848267481</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.192873487003851</v>
+        <v>1.295495649777337</v>
       </c>
     </row>
   </sheetData>
